--- a/inst/extdata/IndexClass.xlsx
+++ b/inst/extdata/IndexClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Documents\GitHub\BioMonTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122C0FE-E02E-4B06-ACEE-6F82D78F8AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDB0B74-FCFE-46F9-818F-AEA139E96BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Index_Class" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Index_Class!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Index_Class!$A$1:$H$5</definedName>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
   <si>
     <t>Erik.Leppo@tetratech.com</t>
   </si>
@@ -124,9 +126,6 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>Flags</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -242,6 +241,24 @@
   </si>
   <si>
     <t>LoGrad-HiElev</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Add Type</t>
+  </si>
+  <si>
+    <t>Type of classification; single = meet one of mutliple conditions, mult = evaluate multiple conditions</t>
   </si>
 </sst>
 </file>
@@ -404,7 +421,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -428,12 +445,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -478,9 +494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -518,9 +534,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,26 +569,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,26 +604,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,12 +798,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -832,7 +814,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44880</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +823,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BioMonTools\inst\extdata\[IndexClass.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\Documents\GitHub\BioMonTools\inst\extdata\[IndexClass.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,7 +851,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,22 +879,22 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="13" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
         <v>meta</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
       <c r="C18" s="12" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A18&amp;"!A1",A18)</f>
@@ -924,11 +906,16 @@
         <v>44880</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>45908</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -957,16 +944,16 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -976,65 +963,76 @@
         <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1047,11 +1045,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,356 +1058,402 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="E2">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>43</v>
+      <c r="D3" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E3">
         <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>43</v>
+      <c r="D4" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E4">
         <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>43</v>
+      <c r="D5" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E5">
         <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>43</v>
+      <c r="D6" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E6">
         <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>43</v>
+      <c r="D7" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E7">
         <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>52</v>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9">
         <v>750</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
         <v>750</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>56</v>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13">
         <v>750</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>55</v>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15">
         <v>750</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
+  <autoFilter ref="A1:H5" xr:uid="{6F6CC361-7655-4DBC-99BA-5024F915F3F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>